--- a/Projeto-Casos-Teste-Equipe_Ed_Fco_Jess_vFinal.xlsx
+++ b/Projeto-Casos-Teste-Equipe_Ed_Fco_Jess_vFinal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manedsil\Downloads\09 Qaulidade de Software e Testes\TrabalhoFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manedsil\Downloads\09 Qaulidade de Software e Testes\TrabalhoFinal\FinalTestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B1501-6421-42E7-81E7-9BC3101A9CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2473F876-4BA5-4FD5-ADDC-3457DBAA3069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>EQUIPE:</t>
   </si>
@@ -406,13 +406,19 @@
   </si>
   <si>
     <t># Cenário de Teste Descrição usadas no Scritp</t>
+  </si>
+  <si>
+    <t>Link para repositório público:</t>
+  </si>
+  <si>
+    <t>https://github.com/EdneyFdaSilva/SWQualityFinalWork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +512,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -545,10 +559,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,11 +578,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -583,26 +593,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -656,6 +661,21 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -732,10 +752,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B7:E22">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição do Teste" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dados de Entrada" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Saída Esperada" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição do Teste" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dados de Entrada" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Saída Esperada" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Planejamento - Entrega 02-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,7 +976,7 @@
   <dimension ref="A1:G1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -973,6 +993,12 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="4" t="s">
@@ -983,21 +1009,21 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
@@ -1012,264 +1038,264 @@
       <c r="E7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT01 - Acessar website https://www.saucedemo.com/</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT02 - Teste de login com credenciais válidas</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT03 - Adição de produto 1 no carrinho</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT04 - Adição de produto 2 no carrinho</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT05 - Ir para carrinho verificar itens</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT06 - Remove produto 1 do carrinho</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT07 - Finalização da compra</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT08 - Preencher dados do comprador e clicar em continue</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT09 - Encerrar compra</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT10 - Teste de login com credenciais inválidas</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT11 - Open more tabs</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="45">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT12 - Test Icons Social Midia</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT13 - Logout</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v xml:space="preserve">CT14 - </v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="13" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v xml:space="preserve">CT15 - </v>
       </c>
@@ -2259,11 +2285,14 @@
     <mergeCell ref="B3:E4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{E71B666D-D8AD-4815-9E9F-439DE253367E}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2287,22 +2316,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" customHeight="1">
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">

--- a/Projeto-Casos-Teste-Equipe_Ed_Fco_Jess_vFinal.xlsx
+++ b/Projeto-Casos-Teste-Equipe_Ed_Fco_Jess_vFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manedsil\Downloads\09 Qaulidade de Software e Testes\TrabalhoFinal\FinalTestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2473F876-4BA5-4FD5-ADDC-3457DBAA3069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E61671-CBBF-4123-AD01-1C3B6FE9091C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +520,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -563,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,21 +595,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -976,7 +983,7 @@
   <dimension ref="A1:G1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -993,10 +1000,10 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1009,21 +1016,21 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
@@ -1038,7 +1045,7 @@
       <c r="E7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1055,7 +1062,7 @@
       <c r="E8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT01 - Acessar website https://www.saucedemo.com/</v>
       </c>
@@ -1073,7 +1080,7 @@
       <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT02 - Teste de login com credenciais válidas</v>
       </c>
@@ -1091,7 +1098,7 @@
       <c r="E10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT03 - Adição de produto 1 no carrinho</v>
       </c>
@@ -1109,7 +1116,7 @@
       <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT04 - Adição de produto 2 no carrinho</v>
       </c>
@@ -1127,7 +1134,7 @@
       <c r="E12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT05 - Ir para carrinho verificar itens</v>
       </c>
@@ -1145,7 +1152,7 @@
       <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT06 - Remove produto 1 do carrinho</v>
       </c>
@@ -1163,7 +1170,7 @@
       <c r="E14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT07 - Finalização da compra</v>
       </c>
@@ -1181,7 +1188,7 @@
       <c r="E15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="13" t="str">
+      <c r="G15" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT08 - Preencher dados do comprador e clicar em continue</v>
       </c>
@@ -1199,7 +1206,7 @@
       <c r="E16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="13" t="str">
+      <c r="G16" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v>CT09 - Encerrar compra</v>
       </c>
@@ -1208,82 +1215,82 @@
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="13" t="str">
+        <v>63</v>
+      </c>
+      <c r="G17" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
-        <v>CT10 - Teste de login com credenciais inválidas</v>
+        <v>CT10 - Open more tabs</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="13" t="str">
+      <c r="C18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
-        <v>CT11 - Open more tabs</v>
+        <v>CT11 - Test Icons Social Midia</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="45">
+    <row r="19" spans="2:7">
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="13" t="str">
+      <c r="C19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
-        <v>CT12 - Test Icons Social Midia</v>
+        <v>CT12 - Logout</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="13" t="str">
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
-        <v>CT13 - Logout</v>
+        <v>CT13 - Teste de login com credenciais inválidas</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="13" t="str">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="G21" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v xml:space="preserve">CT14 - </v>
       </c>
@@ -1295,7 +1302,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="12" t="str">
         <f>_xlfn.CONCAT(Table_1[[#This Row],[ID]]," - ",Table_1[[#This Row],[Descrição do Teste]])</f>
         <v xml:space="preserve">CT15 - </v>
       </c>
@@ -2316,22 +2323,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" customHeight="1">
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
